--- a/tables/2023-02/sup_table_overview_Feb.xlsx
+++ b/tables/2023-02/sup_table_overview_Feb.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="168">
   <si>
     <t>Population size</t>
   </si>
@@ -35,12 +35,24 @@
     <t>Proportion sequenced (%)</t>
   </si>
   <si>
+    <t>Omicron (BA.1)</t>
+  </si>
+  <si>
+    <t>Percentage Omicron (BA.1) (95% CI)</t>
+  </si>
+  <si>
     <t>Omicron (BA.2)</t>
   </si>
   <si>
     <t>Percentage Omicron (BA.2) (95% CI)</t>
   </si>
   <si>
+    <t>Omicron (BA.4)</t>
+  </si>
+  <si>
+    <t>Percentage Omicron (BA.4) (95% CI)</t>
+  </si>
+  <si>
     <t>Omicron (BA.5)</t>
   </si>
   <si>
@@ -194,7 +206,7 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>18.07</t>
+    <t>18.09</t>
   </si>
   <si>
     <t>14.06</t>
@@ -206,7 +218,7 @@
     <t>20.29</t>
   </si>
   <si>
-    <t>18.67</t>
+    <t>18.76</t>
   </si>
   <si>
     <t>13.17</t>
@@ -230,7 +242,7 @@
     <t>16.11</t>
   </si>
   <si>
-    <t>15.52</t>
+    <t>15.53</t>
   </si>
   <si>
     <t>15.00</t>
@@ -251,7 +263,7 @@
     <t>19.34</t>
   </si>
   <si>
-    <t>14.79</t>
+    <t>14.81</t>
   </si>
   <si>
     <t>15.61</t>
@@ -263,109 +275,247 @@
     <t>17.15</t>
   </si>
   <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.9</t>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
   <si>
     <t>5.2</t>
   </si>
   <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>5.5 (1.1-15.1)</t>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>0.3 (0.0-1.8)</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>20.0 (0.5-71.6)</t>
-  </si>
-  <si>
-    <t>5.9 (0.1-28.7)</t>
-  </si>
-  <si>
-    <t>52.7 (38.8-66.3)</t>
-  </si>
-  <si>
-    <t>50.0 (29.9-70.1)</t>
-  </si>
-  <si>
-    <t>100.0 (54.1-100.0)</t>
-  </si>
-  <si>
-    <t>29.4 (10.3-56.0)</t>
-  </si>
-  <si>
-    <t>66.7 (9.4-99.2)</t>
+    <t>4.0 (0.1-20.4)</t>
+  </si>
+  <si>
+    <t>8.0 (5.2-11.6)</t>
+  </si>
+  <si>
+    <t>5.7 (2.3-11.4)</t>
+  </si>
+  <si>
+    <t>100.0 (2.5-100.0)</t>
+  </si>
+  <si>
+    <t>10.0 (3.8-20.5)</t>
+  </si>
+  <si>
+    <t>16.0 (4.5-36.1)</t>
+  </si>
+  <si>
+    <t>10.0 (0.3-44.5)</t>
+  </si>
+  <si>
+    <t>6.2 (0.2-30.2)</t>
+  </si>
+  <si>
+    <t>12.1 (3.4-28.2)</t>
+  </si>
+  <si>
+    <t>13.9 (4.7-29.5)</t>
+  </si>
+  <si>
+    <t>3.4 (0.4-11.9)</t>
+  </si>
+  <si>
+    <t>0.8 (0.0-4.4)</t>
+  </si>
+  <si>
+    <t>1.7 (0.0-8.9)</t>
+  </si>
+  <si>
+    <t>39.3 (33.9-44.9)</t>
+  </si>
+  <si>
+    <t>37.4 (28.8-46.6)</t>
+  </si>
+  <si>
+    <t>58.5 (44.1-71.9)</t>
+  </si>
+  <si>
+    <t>20.0 (10.8-32.3)</t>
+  </si>
+  <si>
+    <t>33.3 (7.5-70.1)</t>
+  </si>
+  <si>
+    <t>40.0 (21.1-61.3)</t>
+  </si>
+  <si>
+    <t>36.7 (24.6-50.1)</t>
+  </si>
+  <si>
+    <t>60.0 (26.2-87.8)</t>
+  </si>
+  <si>
+    <t>25.0 (7.3-52.4)</t>
+  </si>
+  <si>
+    <t>33.3 (18.0-51.8)</t>
+  </si>
+  <si>
+    <t>37.5 (8.5-75.5)</t>
+  </si>
+  <si>
+    <t>50.0 (1.3-98.7)</t>
   </si>
   <si>
     <t>40.0 (5.3-85.3)</t>
   </si>
   <si>
-    <t>83.3 (35.9-99.6)</t>
-  </si>
-  <si>
-    <t>52.9 (27.8-77.0)</t>
-  </si>
-  <si>
-    <t>12.7 (5.3-24.5)</t>
-  </si>
-  <si>
-    <t>3.8 (0.1-19.6)</t>
-  </si>
-  <si>
-    <t>23.5 (6.8-49.9)</t>
-  </si>
-  <si>
-    <t>25.5 (14.7-39.0)</t>
-  </si>
-  <si>
-    <t>38.5 (20.2-59.4)</t>
-  </si>
-  <si>
-    <t>33.3 (0.8-90.6)</t>
-  </si>
-  <si>
-    <t>16.7 (0.4-64.1)</t>
-  </si>
-  <si>
-    <t>17.6 (3.8-43.4)</t>
-  </si>
-  <si>
-    <t>3.6 (0.4-12.5)</t>
-  </si>
-  <si>
-    <t>7.7 (0.9-25.1)</t>
-  </si>
-  <si>
-    <t>11.8 (1.5-36.4)</t>
+    <t>52.8 (35.5-69.6)</t>
+  </si>
+  <si>
+    <t>37.9 (25.5-51.6)</t>
+  </si>
+  <si>
+    <t>15.7 (11.8-20.2)</t>
+  </si>
+  <si>
+    <t>12.2 (7.0-19.3)</t>
+  </si>
+  <si>
+    <t>20.8 (10.8-34.1)</t>
+  </si>
+  <si>
+    <t>5.0 (1.0-13.9)</t>
+  </si>
+  <si>
+    <t>11.1 (0.3-48.2)</t>
+  </si>
+  <si>
+    <t>18.8 (4.0-45.6)</t>
+  </si>
+  <si>
+    <t>24.2 (11.1-42.3)</t>
+  </si>
+  <si>
+    <t>12.5 (0.3-52.7)</t>
+  </si>
+  <si>
+    <t>11.1 (3.1-26.1)</t>
+  </si>
+  <si>
+    <t>20.7 (11.2-33.4)</t>
+  </si>
+  <si>
+    <t>32.3 (27.1-37.8)</t>
+  </si>
+  <si>
+    <t>41.5 (32.7-50.7)</t>
+  </si>
+  <si>
+    <t>60.0 (46.5-72.4)</t>
+  </si>
+  <si>
+    <t>44.4 (13.7-78.8)</t>
+  </si>
+  <si>
+    <t>24.0 (9.4-45.1)</t>
+  </si>
+  <si>
+    <t>25.0 (14.7-37.9)</t>
+  </si>
+  <si>
+    <t>20.0 (2.5-55.6)</t>
+  </si>
+  <si>
+    <t>50.0 (24.7-75.3)</t>
+  </si>
+  <si>
+    <t>15.2 (5.1-31.9)</t>
+  </si>
+  <si>
+    <t>50.0 (15.7-84.3)</t>
+  </si>
+  <si>
+    <t>60.0 (14.7-94.7)</t>
+  </si>
+  <si>
+    <t>16.7 (6.4-32.8)</t>
+  </si>
+  <si>
+    <t>32.8 (21.0-46.3)</t>
+  </si>
+  <si>
+    <t>4.2 (2.2-7.0)</t>
+  </si>
+  <si>
+    <t>2.4 (0.5-7.0)</t>
+  </si>
+  <si>
+    <t>3.3 (0.4-11.5)</t>
+  </si>
+  <si>
+    <t>8.3 (2.8-18.4)</t>
+  </si>
+  <si>
+    <t>5.6 (0.7-18.7)</t>
+  </si>
+  <si>
+    <t>5.2 (1.1-14.4)</t>
   </si>
 </sst>
 </file>
@@ -469,66 +619,90 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
         <v>8738791.0</v>
       </c>
       <c r="C2" t="n">
-        <v>3546.0</v>
+        <v>3549.0</v>
       </c>
       <c r="D2" t="n">
-        <v>32463.0</v>
+        <v>32466.0</v>
       </c>
       <c r="E2" t="n">
-        <v>371.0</v>
+        <v>372.0</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G2" t="n">
-        <v>55.0</v>
+        <v>313.0</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K2" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M2" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O2" t="n">
-        <v>14.0</v>
+        <v>123.0</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.0</v>
+        <v>49.0</v>
       </c>
       <c r="R2" t="s">
-        <v>115</v>
+        <v>139</v>
+      </c>
+      <c r="S2" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>1861791.0</v>
@@ -543,48 +717,60 @@
         <v>550.0</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>26.0</v>
+        <v>123.0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M3" t="n">
         <v>1.0</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="O3" t="n">
-        <v>10.0</v>
+        <v>46.0</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>140</v>
+      </c>
+      <c r="S3" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="n">
         <v>509448.0</v>
@@ -599,48 +785,60 @@
         <v>692.0</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G4" t="n">
-        <v>6.0</v>
+        <v>53.0</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
       </c>
       <c r="N4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>141</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>141</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>176166.0</v>
@@ -655,48 +853,60 @@
         <v>476.0</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O5" t="n">
         <v>0.0</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
       </c>
       <c r="R5" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
         <v>822968.0</v>
@@ -711,48 +921,60 @@
         <v>518.0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" t="n">
-        <v>17.0</v>
+        <v>60.0</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M6" t="n">
         <v>1.0</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O6" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="Q6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.0</v>
       </c>
-      <c r="R6" t="s">
-        <v>117</v>
+      <c r="V6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>353209.0</v>
@@ -767,48 +989,60 @@
         <v>453.0</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" t="n">
         <v>3.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.0</v>
       </c>
-      <c r="P7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>143</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
         <v>1451080.0</v>
@@ -823,48 +1057,60 @@
         <v>308.0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="M8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R8" t="s">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>153</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" t="n">
         <v>1047473.0</v>
@@ -879,48 +1125,60 @@
         <v>303.0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G9" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R9" t="s">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>153</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" t="n">
         <v>329809.0</v>
@@ -935,48 +1193,60 @@
         <v>280.0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O10" t="n">
         <v>0.0</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q10" t="n">
         <v>0.0</v>
       </c>
       <c r="R10" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
         <v>73798.0</v>
@@ -991,104 +1261,128 @@
         <v>515.0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
       <c r="L11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O11" t="n">
         <v>0.0</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q11" t="n">
         <v>0.0</v>
       </c>
       <c r="R11" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>110</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="n">
         <v>1472184.0</v>
       </c>
       <c r="C12" t="n">
-        <v>765.0</v>
+        <v>766.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5207.0</v>
+        <v>5208.0</v>
       </c>
       <c r="E12" t="n">
         <v>354.0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>127</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>154</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
         <v>703086.0</v>
@@ -1103,48 +1397,60 @@
         <v>293.0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R13" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" t="n">
         <v>292817.0</v>
@@ -1159,48 +1465,60 @@
         <v>361.0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="R14" t="s">
-        <v>96</v>
+        <v>144</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>156</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="n">
         <v>196036.0</v>
@@ -1215,110 +1533,134 @@
         <v>598.0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
       </c>
       <c r="N15" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="R15" t="s">
-        <v>96</v>
+        <v>145</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
         <v>280245.0</v>
       </c>
       <c r="C16" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="D16" t="n">
-        <v>916.0</v>
+        <v>917.0</v>
       </c>
       <c r="E16" t="n">
         <v>327.0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K16" t="n">
         <v>0.0</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="Q16" t="n">
         <v>0.0</v>
       </c>
       <c r="R16" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" t="n">
         <v>833178.0</v>
       </c>
       <c r="C17" t="n">
-        <v>262.0</v>
+        <v>263.0</v>
       </c>
       <c r="D17" t="n">
         <v>2179.0</v>
@@ -1327,48 +1669,60 @@
         <v>262.0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K17" t="n">
         <v>0.0</v>
       </c>
       <c r="L17" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M17" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P17" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R17" t="s">
-        <v>96</v>
+        <v>146</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>158</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
         <v>420326.0</v>
@@ -1383,54 +1737,66 @@
         <v>271.0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P18" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R18" t="s">
-        <v>96</v>
+        <v>135</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>43894.0</v>
       </c>
       <c r="C19" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D19" t="n">
         <v>89.0</v>
@@ -1439,48 +1805,60 @@
         <v>203.0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
         <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M19" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
       </c>
       <c r="P19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
       </c>
       <c r="R19" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B20" t="n">
         <v>38435.0</v>
@@ -1495,48 +1873,60 @@
         <v>208.0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O20" t="n">
         <v>0.0</v>
       </c>
       <c r="P20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
       </c>
       <c r="R20" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>110</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
         <v>163689.0</v>
@@ -1551,48 +1941,60 @@
         <v>268.0</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P21" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0</v>
       </c>
       <c r="R21" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>159</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B22" t="n">
         <v>37047.0</v>
@@ -1607,48 +2009,60 @@
         <v>200.0</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
       <c r="L22" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O22" t="n">
         <v>0.0</v>
       </c>
       <c r="P22" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
       </c>
       <c r="R22" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23" t="n">
         <v>129787.0</v>
@@ -1663,104 +2077,128 @@
         <v>277.0</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
         <v>0.0</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
       </c>
       <c r="N23" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O23" t="n">
         <v>0.0</v>
       </c>
       <c r="P23" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
       </c>
       <c r="R23" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>114</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B24" t="n">
         <v>2567001.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1078.0</v>
+        <v>1079.0</v>
       </c>
       <c r="D24" t="n">
-        <v>7904.0</v>
+        <v>7906.0</v>
       </c>
       <c r="E24" t="n">
         <v>308.0</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G24" t="n">
-        <v>6.0</v>
+        <v>36.0</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K24" t="n">
         <v>5.0</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O24" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R24" t="s">
-        <v>96</v>
+        <v>147</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>160</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B25" t="n">
         <v>16360.0</v>
@@ -1775,48 +2213,60 @@
         <v>122.0</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O25" t="n">
         <v>0.0</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>110</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B26" t="n">
         <v>55585.0</v>
@@ -1831,48 +2281,60 @@
         <v>212.0</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
       <c r="L26" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
       </c>
       <c r="N26" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O26" t="n">
         <v>0.0</v>
       </c>
       <c r="P26" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0</v>
       </c>
       <c r="R26" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>110</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B27" t="n">
         <v>41190.0</v>
@@ -1887,48 +2349,60 @@
         <v>323.0</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
       <c r="L27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
       </c>
       <c r="N27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
       </c>
       <c r="P27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
       </c>
       <c r="R27" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>110</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B28" t="n">
         <v>519245.0</v>
@@ -1943,48 +2417,60 @@
         <v>217.0</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
       <c r="L28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
       </c>
       <c r="N28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
       </c>
       <c r="P28" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q28" t="n">
         <v>0.0</v>
       </c>
       <c r="R28" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>110</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B29" t="n">
         <v>83995.0</v>
@@ -1999,48 +2485,60 @@
         <v>313.0</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K29" t="n">
         <v>0.0</v>
       </c>
       <c r="L29" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
       </c>
       <c r="N29" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O29" t="n">
         <v>0.0</v>
       </c>
       <c r="P29" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="n">
         <v>0.0</v>
       </c>
       <c r="R29" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>110</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B30" t="n">
         <v>285964.0</v>
@@ -2055,104 +2553,128 @@
         <v>309.0</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O30" t="n">
         <v>0.0</v>
       </c>
       <c r="P30" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
       </c>
       <c r="R30" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>110</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B31" t="n">
         <v>1564662.0</v>
       </c>
       <c r="C31" t="n">
-        <v>686.0</v>
+        <v>687.0</v>
       </c>
       <c r="D31" t="n">
-        <v>5361.0</v>
+        <v>5363.0</v>
       </c>
       <c r="E31" t="n">
         <v>343.0</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G31" t="n">
-        <v>6.0</v>
+        <v>36.0</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K31" t="n">
         <v>5.0</v>
       </c>
       <c r="L31" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O31" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="P31" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R31" t="s">
-        <v>96</v>
+        <v>147</v>
+      </c>
+      <c r="S31" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>160</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B32" t="n">
         <v>553557.0</v>
@@ -2167,48 +2689,60 @@
         <v>446.0</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G32" t="n">
-        <v>17.0</v>
+        <v>58.0</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="K32" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="L32" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="M32" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O32" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R32" t="s">
+        <v>148</v>
+      </c>
+      <c r="S32" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>161</v>
+      </c>
+      <c r="U32" t="n">
         <v>3.0</v>
       </c>
-      <c r="P32" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>96</v>
+      <c r="V32" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B33" t="n">
         <v>201376.0</v>
@@ -2223,48 +2757,60 @@
         <v>406.0</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G33" t="n">
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
       <c r="L33" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M33" t="n">
         <v>0.0</v>
       </c>
       <c r="N33" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O33" t="n">
         <v>0.0</v>
       </c>
       <c r="P33" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
       </c>
       <c r="R33" t="s">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>110</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B34" t="n">
         <v>352181.0</v>
@@ -2279,43 +2825,55 @@
         <v>469.0</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G34" t="n">
-        <v>17.0</v>
+        <v>58.0</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="K34" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="L34" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="M34" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>148</v>
+      </c>
+      <c r="S34" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>161</v>
+      </c>
+      <c r="U34" t="n">
         <v>3.0</v>
       </c>
-      <c r="P34" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>96</v>
+      <c r="V34" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
